--- a/학습자료/단답형/영단어 기출.xlsx
+++ b/학습자료/단답형/영단어 기출.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20395"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\test\Documents\GitHub\Private-Quizlet\학습자료\단답형\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\Private-Quizlet\학습자료\단답형\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5949C1EE-B71D-4FF7-953D-6C7A3BDC6864}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C97F2D-BF4B-46C2-9809-8D2E0A157AD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="535">
   <si>
     <t>질문</t>
   </si>
@@ -1584,6 +1584,382 @@
   </si>
   <si>
     <t>불경한</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>make light of</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>~을 가볍게 여기다, 경시하다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>canny</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>영리한</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>shrewd</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>prestigious</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>명성 있는, 유명한</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>impudent</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>뻔뻔스러운, 철면피의</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>paucity</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>결핍</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> predatory</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>약탈의</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>dormant</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>잠자는</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pitfall</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>위험</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>unabashed</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>unprincipled</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>부도덕한</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>misanthropic</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>사람을 싫어하는</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>contingent</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>우발적인</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>omnivorous</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>잡식성의</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>compromise</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>위태롭게 하다, 손상시키다, 협상(타협)하다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>work up</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>북돋우다, 불러일으키다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>annihilate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>전멸시키다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>gratify</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>기쁘게하다, 만족시키다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>whet</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(칼 등을) 갈다, (식욕 등을) 자극하다, 돋우다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sterile</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>불모의</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>futile</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>무익한</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>volatile</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>변하기 쉬운</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>felicitous</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>절묘한</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>unscrupulous</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>delicate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>섬세한</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>delecatable</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>유쾌한</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>insolent</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>무례한</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tractable</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>유순한</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>put up with</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>참다, 견디다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>take over</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>인계받다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>take</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>take on</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(일을) 맡다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>take off</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이륙하다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>take after</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>닮다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>take care of</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>돌보다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>servile</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>굽실거리는</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>officious</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>참견하는</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>harness</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이용하다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>avert</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>~에서 돌리다, 외면하다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>muffle</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>억압하다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>evoke</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>자아내다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>predecessor</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>전임자</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>plunderer</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>약탈자</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>palatable</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>맛있는</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>dissolvable</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>분해할 수 있는</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>potable</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>마셔도 되는</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>peculiar</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이상한</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ostentatiously</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>보란 듯이</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>부사</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>boastfully</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1972,16 +2348,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D220"/>
+  <dimension ref="A1:D268"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A206" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A221" sqref="A221"/>
+      <pane ySplit="1" topLeftCell="A253" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A269" sqref="A269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="16384" width="8.6640625" style="2"/>
+    <col min="1" max="1" width="18" style="2" customWidth="1"/>
+    <col min="2" max="2" width="30.25" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -4699,6 +5077,534 @@
       </c>
       <c r="C220" s="2" t="s">
         <v>204</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A221" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A222" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A223" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A224" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A225" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A226" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A227" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A228" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A229" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A230" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A231" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A232" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A233" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A234" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A235" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A236" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A237" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A238" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A239" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A240" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A241" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A242" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A243" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A244" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="C244" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A245" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="C245" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A246" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="C246" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A247" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="B247" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="C247" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A248" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="B248" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="C248" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A249" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="C249" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A250" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="C250" s="2" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A251" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="B251" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="C251" s="2" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A252" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="C252" s="2" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A253" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="B253" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="C253" s="2" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A254" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="C254" s="2" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A255" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="C255" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A256" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="B256" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="C256" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A257" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="B257" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="C257" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A258" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="B258" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="C258" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A259" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="B259" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="C259" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A260" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="B260" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="C260" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A261" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="B261" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="C261" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A262" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="B262" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="C262" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A263" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="B263" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="C263" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A264" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B264" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="C264" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A265" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="B265" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="C265" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A266" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="B266" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="C266" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A267" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="B267" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="C267" s="2" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A268" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="B268" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="C268" s="2" t="s">
+        <v>533</v>
       </c>
     </row>
   </sheetData>

--- a/학습자료/단답형/영단어 기출.xlsx
+++ b/학습자료/단답형/영단어 기출.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20395"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\Private-Quizlet\학습자료\단답형\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\test\Documents\GitHub\Private-Quizlet\학습자료\단답형\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C97F2D-BF4B-46C2-9809-8D2E0A157AD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF4F83B1-ED66-433E-A3D6-5D5296B1DC5F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1471" uniqueCount="978">
   <si>
     <t>질문</t>
   </si>
@@ -1960,6 +1960,1736 @@
   </si>
   <si>
     <t>boastfully</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>plainly</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>있는 그대로, 숨김없이</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>부사</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>loud and clear</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>분명하게, 이해하기 쉽게</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>manipulate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>조작하다, 다루다, 처리하다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>동사</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>consciously</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>의식적으로</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>promulgate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>반포(공포)하다, 널리 알리다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>flattering</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>아첨하는</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>형용사</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>intractable</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>다루기 힘든, 말을 듣지 않는, 고집센</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>suspicious</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>의심스러운, 수상쩍은</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>consecutive</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>연속적인</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>falsify</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>위조하다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>보복하다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>retaliate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>주고받다, 보답하다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>reciprocate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>폐지하다, 철회하다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>repeal</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>요점을 되풀이하며 말하다, 개괄하다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>recapitulate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>repdiate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>거부하다, 부인하다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>re</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>proliferation</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>확산</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>perspiration</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>땀</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>perpetuation</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>영구화</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>proximation</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>가장 가까이 함</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>명사</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cordial</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>다정한</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sullen</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>침울한</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>morose</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>naughty</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>장난꾸러기의</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mirthful</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>명량한</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>indigenous</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>native</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>토착의</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ravenous</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>탐욕스러운</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>impoverished</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>가난한</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>itineant</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>떠돌아다니는</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>호사가| 일을 벌이기를 좋아하는 사람</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>dilettante</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>malefactor</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>범인, 악인, 악한</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pariah</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>부랑자</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>demagogue</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>선동가</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>through thick and thin</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋을 때나 안 좋을 때나, 어떤 고난이 있어도</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>quintessentil</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>전형적인</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>destitute</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>빈곤한</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>devout</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>독실한</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>meticulous</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>지나치게 세심한</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>deleterious</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>해로운</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>가난해진</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>attenuate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>약화시키다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>manacle</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>수갑(족쇄)을 채우다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>incapacitate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>정상적인 생활을 하지 못하게 만들다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>inclusive</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>포괄적인</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>intimate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>사적인</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>deain</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>구금하다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>epitomize</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>집약적(전형적)으로 보여주다, 요약하다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>dub</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>~라고 칭하다, 이름을 붙이다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>derisive</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>조롱하는</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>seemingly</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>외관상, 겉보기에</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rescind</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>무효로 하다, 폐지하다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>refurbish</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>재단장하다, 개조하다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>reimburse</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>변상하다, 상환하다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>disparage</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>비난하다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>senator</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>상원의원</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>gimmick</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>속임수, 눈속임, 트릭</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>belittle</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>경시하다, 폄하하다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>slight</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>경멸하다, 얕보다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>dignitary</t>
+  </si>
+  <si>
+    <t>정부 고관</t>
+  </si>
+  <si>
+    <t>aide</t>
+  </si>
+  <si>
+    <t>측근, 보좌관</t>
+  </si>
+  <si>
+    <t>an array of</t>
+  </si>
+  <si>
+    <t>다수의</t>
+  </si>
+  <si>
+    <t>conglomerate</t>
+  </si>
+  <si>
+    <t>집단, 복합체, 복합 기업</t>
+  </si>
+  <si>
+    <t>profession</t>
+  </si>
+  <si>
+    <t>직업</t>
+  </si>
+  <si>
+    <t>loophole</t>
+  </si>
+  <si>
+    <t>허점, 빠져나갈 구멍</t>
+  </si>
+  <si>
+    <t>fuzzy</t>
+  </si>
+  <si>
+    <t>희미한, 분명치 않은</t>
+  </si>
+  <si>
+    <t>bribery</t>
+  </si>
+  <si>
+    <t>뇌물, 뇌물 수수</t>
+  </si>
+  <si>
+    <t>mere</t>
+  </si>
+  <si>
+    <t>단순한, 단지</t>
+  </si>
+  <si>
+    <t>generosity</t>
+  </si>
+  <si>
+    <t>아량, 관대함</t>
+  </si>
+  <si>
+    <t>finance</t>
+  </si>
+  <si>
+    <t>자금을 공급하다</t>
+  </si>
+  <si>
+    <t>private fortune</t>
+  </si>
+  <si>
+    <t>사재, 개인 재산</t>
+  </si>
+  <si>
+    <t>condone</t>
+  </si>
+  <si>
+    <t>용서하다</t>
+  </si>
+  <si>
+    <t>connive</t>
+  </si>
+  <si>
+    <t>묵인하다, 눈감아주다</t>
+  </si>
+  <si>
+    <t>fixate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>응시하다, 집차가다 | 고정하다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>viscerally</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>내장에서, 본능적으로</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>unflinchingly</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>굴하지(움츠리지) 않고</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>denigration</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>더럽힘, 명예훼손, 폄하</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>impugnment</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>비난, 공격</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>prominence</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>걸출, 탁월, 현저, 명성</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>languish</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>쇠약해지다, 활기를 잃다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>in the wake of</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>~에 뒤이어, ~의 결과로서</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>critique</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>비평, 비판</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>utilitarian</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>공리주의자</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pragmatist</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>실용주의자</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>advocate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>옹호하다, 주장하다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>arguably</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>주장하건대, 거의 틀림없이</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>laudation</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>칭찬, 찬미</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>homage</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>경의</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>exuberbce</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>풍부, 무성, 충일(넘쳐흐름)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sobriety</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>맨정신, 냉정, 절주, 절제</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>disparaging</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>비난하는, 폄하하는, 경멸하는, 헐뜯는</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>형용사</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>relent</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>누그러지다, 가엽게 여기다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>동사</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>exquisite</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>정교한, 세련된</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>scrupulous</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>면밀한, 양심적인</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>disinterested</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>사심 없는, 청렴한, 공평한</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sworn</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>선서한</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>get cold feet</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>겁먹다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>intimidating</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>위협하는</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>make do with</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>임시변통하다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>undermine</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>약화시키다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>stand out</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>두드러지다, 돋보이다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>털어놓다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>면하게 하다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>실망시키다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>누그러지다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>let on</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>let off</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>let up</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>let down</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>let</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pompous</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>잘난체 하는</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>presumptuous</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>건방진</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>dislocate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>혼란에 빠뜨리다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>retrieve</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>회수하다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>revoke</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>폐지하다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>grapple</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>붙잡다, 쥐다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>evoke</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>감정을 환기시키다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>exploit</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>착취하다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>conciliatory</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>달래는, 회유적인</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>assured</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>확실한, 확신 있는</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>punitive</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>형벌의</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>flattering</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>아첨하는, 빌붙는</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>appease</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>달래다, 진정시키다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>acquiesce</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>묵인하다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>distracted</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>마음이 산란한</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>증오, 혐오</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>웅변가</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>신탁</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>반계몽주의</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>odium</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>orator</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>oracle</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>obscurantism</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>submissive</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>복종하는, 순종적인</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>perplexed</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>당황한</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>calumniate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>비방하다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>wangle</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>얻어내다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>suffuse</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>퍼지다, 뒤덮다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>redress</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>사정하다, 바로잡다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>predisposition</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>경향, 성질</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>명사</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>resentment</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>원한, 분개</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>demeanor</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>태도, 품행</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>gratitude</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>감사</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sheer</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>순전한</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>utter</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>engross</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>몰두하게 만들다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>preoccupied with</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>~에 몰두한, ~에 집착하는</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>slow to a trickle</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>눈곱만큼으로 줄어들다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>apathetic to</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>~에 대해 냉담한</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cavalier</t>
+  </si>
+  <si>
+    <t>reticent</t>
+  </si>
+  <si>
+    <t>reticent</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>과묵한, 말이 적은</t>
+  </si>
+  <si>
+    <t>과묵한, 말이 적은</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>unequivocal</t>
+  </si>
+  <si>
+    <t>명료한, 모호하지 않은</t>
+  </si>
+  <si>
+    <t>careprovider</t>
+  </si>
+  <si>
+    <t>의료인</t>
+  </si>
+  <si>
+    <t>무신경한; 기사다운, 호탕한, 거만한</t>
+  </si>
+  <si>
+    <t>snobbish</t>
+  </si>
+  <si>
+    <t>속물적인</t>
+  </si>
+  <si>
+    <t>apathetic</t>
+  </si>
+  <si>
+    <t>냉담한, 무관심한</t>
+  </si>
+  <si>
+    <t>appalling</t>
+  </si>
+  <si>
+    <t>섬뜩한, 끔찍한; 지독한, 형편없는</t>
+  </si>
+  <si>
+    <t>lodge</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>박히다 | 숙박하다, 오두막</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sore throat</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>인후염 | 감기 따위로 인하여 인두와 후두 점막에 생기는 염증</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>choking</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>숨막힘, 질식, 숨막히는</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>entangle</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>얽히게 하다, (곤경 등에) 빠뜨리다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>swivel</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>회전시키다, 돌리다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>tout</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>glisten</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>반짝이다, 빛나다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(설득하기 위해) 장점을 내세우다| 제품을 홍보(광고)하다, 극구 칭찬하다, 과장하여 선전하다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>shore up</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>강화하다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>reserve</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>예비, 준비(적립)금</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>put in place</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>마련하다, 실시(시행)하다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bolter</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>assess</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>평가하다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>stake out</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>감시하다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>stave off</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>피하다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rake up</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>긁어모으다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>fritter away</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>낭비하다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>take in by</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>속이다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>deceive</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>make a face</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>얼굴을 찌푸리다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>grimace</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rejoice</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>기뻐하다, 즐겁게 하다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>guffaw</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>belly laugh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>포복절도, 배꼽잡는 웃음</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>너털웃음, 껄껄웃음</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>chuckle</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>낄낄 웃음</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>smirk</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>능글맞은 웃음, 억지웃음</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>giggle</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>킥킥 웃음</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>웃음</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cozen</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>play havoc with</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>엉망으로 만들다, 황폐하게 하다, 아수라장으로 만들다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>lane</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>시골길</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>hedgerow</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>산울타리</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bustle in and out</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>사방으로 부산히 움직이다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>see eye to eye</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>의견을 같이하다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>part</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>깨지다, 갈라지다, 관계를 끊다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>redundant</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>여분의</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pace</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>속도(보조)를 조절하다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>brush aside</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>무시하다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>dismiss</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>advocate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>옹호하다, 변호하다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>elucidate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명하다, 밝히다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>밝혀지다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>의지하다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>~으로 변하다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>~을 뒤집다, ~을 숙고하다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>~에서 쫓아내다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>turn out</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>turn to</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>turn into</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>turn over</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>turn out of</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>turn</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>slander</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>비방하다, 명예를 훼손하다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>libel</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>명예를 훼손하다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>calmniate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>commend</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>칭찬하다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>depreciate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>헐뜯다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>laid-back</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>느긋한, 마음 편한</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mettlesome</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>기운찬, 위세 있는</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mousy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>조용한, 내성적인</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>blithe</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>태평스러운, 쾌활한, 행복한</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>hyaloid</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>투명한, 유리 모양의</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>fetter</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>구속하다, 속박하다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>nod through</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>고개를 끄덕여 승인하다, 수긍하다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>exempt from</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>~을 면제하다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>comply with</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>순응하다, 준수하다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>emancipate</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>해방시키다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>discursive</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>두서없는, 산만한</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>meandering</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>quixotic</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>비실제적인</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>railing</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>매도하는, 욕설하는</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>brittle</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>부서지기 쉬운, 과민한</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>annul</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>무효로 하다, 취소하다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>hammer out</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>강구해내다, 해결하다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>baron</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>귀족, 남작</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>renounce</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>포기하다, 단념하다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>homage</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>존경, 충성</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>변경</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>충성</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>완화</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>두운, 두우법칙</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>탄약, 무기</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>alteration</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>alleiance</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>alleviation</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>alliteration</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ammunition</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2348,11 +4078,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D268"/>
+  <dimension ref="A1:D490"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A253" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A269" sqref="A269"/>
+      <pane ySplit="1" topLeftCell="A471" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C485" sqref="C485:C490"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -5607,6 +7337,2448 @@
         <v>533</v>
       </c>
     </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A269" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="B269" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="C269" s="2" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A270" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="B270" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="C270" s="2" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A271" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="B271" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="C271" s="2" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A272" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="B272" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="C272" s="2" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A273" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="B273" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="C273" s="2" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A274" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="B274" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="C274" s="2" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A275" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="B275" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="C275" s="2" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A276" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="B276" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="C276" s="2" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A277" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="B277" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="C277" s="2" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A278" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="B278" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="C278" s="2" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A279" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="B279" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="C279" s="2" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A280" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="B280" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="C280" s="2" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A281" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="B281" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C281" s="2" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A282" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="B282" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="C282" s="2" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A283" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="B283" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="C283" s="2" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A284" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="B284" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="C284" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A285" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="B285" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="C285" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A286" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="B286" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="C286" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A287" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="B287" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="C287" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A288" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="B288" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="C288" s="2" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A289" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="B289" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="C289" s="2" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A290" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="B290" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="C290" s="2" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A291" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="B291" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="C291" s="2" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A292" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="B292" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="C292" s="2" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A293" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="B293" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="C293" s="2" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A294" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="B294" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="C294" s="2" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A295" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="B295" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="C295" s="2" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A296" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="B296" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="C296" s="2" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A297" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="B297" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="C297" s="2" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A298" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="B298" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="C298" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A299" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="B299" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="C299" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A300" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="B300" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="C300" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A301" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="B301" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="C301" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A302" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="B302" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="C302" s="2" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A303" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="B303" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="C303" s="2" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A304" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="B304" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="C304" s="2" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A305" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="B305" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="C305" s="2" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A306" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="B306" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="C306" s="2" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A307" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="B307" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="C307" s="2" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A308" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="B308" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="C308" s="2" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A309" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="B309" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="C309" s="2" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A310" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="B310" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="C310" s="2" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A311" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="B311" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="C311" s="2" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A312" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="B312" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="C312" s="2" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A313" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="B313" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="C313" s="2" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A314" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="B314" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="C314" s="2" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A315" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="B315" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="C315" s="2" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A316" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="B316" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="C316" s="2" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A317" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="B317" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="C317" s="2" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A318" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="B318" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="C318" s="2" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A319" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="B319" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="C319" s="2" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A320" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="B320" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="C320" s="2" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A321" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="B321" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="C321" s="2" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A322" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="B322" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="C322" s="2" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A323" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="B323" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="C323" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A324" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="B324" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="C324" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A325" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="B325" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="C325" s="2" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A326" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="B326" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="C326" s="2" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A327" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="B327" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="C327" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A328" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="B328" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="C328" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A329" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="B329" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="C329" s="2" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A330" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="B330" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="C330" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A331" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="B331" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="C331" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A332" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="B332" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="C332" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A333" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="B333" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="C333" s="2" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A334" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="B334" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="C334" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A335" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="B335" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="C335" s="2" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A336" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="B336" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="C336" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A337" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="B337" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="C337" s="2" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A338" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="B338" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="C338" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A339" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="B339" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="C339" s="2" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A340" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="B340" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="C340" s="2" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A341" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="B341" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="C341" s="2" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A342" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="B342" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="C342" s="2" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A343" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="B343" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="C343" s="2" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A344" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="B344" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="C344" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A345" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="B345" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="C345" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A346" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="B346" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="C346" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A347" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="B347" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="C347" s="2" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A348" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="B348" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="C348" s="2" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A349" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="B349" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="C349" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A350" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="B350" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="C350" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A351" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="B351" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="C351" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A352" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="B352" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="C352" s="2" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A353" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="B353" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="C353" s="2" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A354" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="B354" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="C354" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A355" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="B355" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="C355" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A356" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="B356" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="C356" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A357" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="B357" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="C357" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A358" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="B358" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="C358" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A359" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="B359" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="C359" s="2" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A360" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="B360" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="C360" s="2" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A361" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="B361" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="C361" s="2" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A362" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="B362" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="C362" s="2" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A363" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="B363" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="C363" s="2" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A364" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="B364" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="C364" s="2" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A365" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="B365" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="C365" s="2" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A366" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="B366" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="C366" s="2" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A367" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="B367" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="C367" s="2" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A368" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="B368" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="C368" s="2" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A369" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="B369" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="C369" s="2" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A370" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="B370" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="C370" s="2" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A371" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="B371" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="C371" s="2" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A372" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="B372" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="C372" s="2" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A373" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="B373" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="C373" s="2" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A374" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="B374" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="C374" s="2" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A375" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="B375" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="C375" s="2" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A376" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="B376" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="C376" s="2" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A377" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="B377" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="C377" s="2" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A378" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="B378" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="C378" s="2" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A379" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="B379" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="C379" s="2" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A380" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="B380" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="C380" s="2" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A381" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="B381" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="C381" s="2" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A382" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="B382" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="C382" s="2" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A383" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="B383" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="C383" s="2" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A384" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="B384" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="C384" s="2" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A385" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="B385" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="C385" s="2" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A386" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="B386" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="C386" s="2" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A387" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="B387" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="C387" s="2" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A388" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="B388" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="C388" s="2" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A389" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="B389" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="C389" s="2" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A390" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="B390" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="C390" s="2" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A391" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="B391" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="C391" s="2" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A392" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="B392" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="C392" s="2" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A393" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="B393" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="C393" s="2" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A394" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="B394" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="C394" s="2" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A395" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="B395" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="C395" s="2" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A396" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="B396" s="2" t="s">
+        <v>794</v>
+      </c>
+      <c r="C396" s="2" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A397" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="B397" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="C397" s="2" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A398" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="B398" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="C398" s="2" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A399" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="B399" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="C399" s="2" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A400" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="B400" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="C400" s="2" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A401" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="B401" s="2" t="s">
+        <v>805</v>
+      </c>
+      <c r="C401" s="2" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A402" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="B402" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="C402" s="2" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A403" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="B403" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="C403" s="2" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A404" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="B404" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="C404" s="2" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A405" s="2" t="s">
+        <v>811</v>
+      </c>
+      <c r="B405" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="C405" s="2" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A406" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="B406" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="C406" s="2" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A407" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="B407" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="C407" s="2" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A408" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="B408" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="C408" s="2" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A409" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="B409" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="C409" s="2" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A410" s="2" t="s">
+        <v>826</v>
+      </c>
+      <c r="B410" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="C410" s="2" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A411" s="2" t="s">
+        <v>819</v>
+      </c>
+      <c r="B411" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="C411" s="2" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A412" s="2" t="s">
+        <v>820</v>
+      </c>
+      <c r="B412" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="C412" s="2" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A413" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="B413" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="C413" s="2" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A414" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="B414" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="C414" s="2" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A415" s="2" t="s">
+        <v>833</v>
+      </c>
+      <c r="B415" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="C415" s="2" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A416" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="B416" s="2" t="s">
+        <v>836</v>
+      </c>
+      <c r="C416" s="2" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A417" s="2" t="s">
+        <v>837</v>
+      </c>
+      <c r="B417" s="2" t="s">
+        <v>838</v>
+      </c>
+      <c r="C417" s="2" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A418" s="2" t="s">
+        <v>839</v>
+      </c>
+      <c r="B418" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="C418" s="2" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A419" s="2" t="s">
+        <v>841</v>
+      </c>
+      <c r="B419" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="C419" s="2" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A420" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="B420" s="2" t="s">
+        <v>844</v>
+      </c>
+      <c r="C420" s="2" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A421" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="B421" s="2" t="s">
+        <v>848</v>
+      </c>
+      <c r="C421" s="2" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A422" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="B422" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="C422" s="2" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A423" s="2" t="s">
+        <v>849</v>
+      </c>
+      <c r="B423" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="C423" s="2" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A424" s="2" t="s">
+        <v>851</v>
+      </c>
+      <c r="B424" s="2" t="s">
+        <v>852</v>
+      </c>
+      <c r="C424" s="2" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A425" s="2" t="s">
+        <v>853</v>
+      </c>
+      <c r="B425" s="2" t="s">
+        <v>854</v>
+      </c>
+      <c r="C425" s="2" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A426" s="2" t="s">
+        <v>855</v>
+      </c>
+      <c r="B426" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="C426" s="2" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A427" s="2" t="s">
+        <v>856</v>
+      </c>
+      <c r="B427" s="2" t="s">
+        <v>857</v>
+      </c>
+      <c r="C427" s="2" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A428" s="2" t="s">
+        <v>858</v>
+      </c>
+      <c r="B428" s="2" t="s">
+        <v>859</v>
+      </c>
+      <c r="C428" s="2" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A429" s="2" t="s">
+        <v>860</v>
+      </c>
+      <c r="B429" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="C429" s="2" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A430" s="2" t="s">
+        <v>862</v>
+      </c>
+      <c r="B430" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="C430" s="2" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A431" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="B431" s="2" t="s">
+        <v>865</v>
+      </c>
+      <c r="C431" s="2" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A432" s="2" t="s">
+        <v>866</v>
+      </c>
+      <c r="B432" s="2" t="s">
+        <v>867</v>
+      </c>
+      <c r="C432" s="2" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A433" s="2" t="s">
+        <v>868</v>
+      </c>
+      <c r="B433" s="2" t="s">
+        <v>867</v>
+      </c>
+      <c r="C433" s="2" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A434" s="2" t="s">
+        <v>869</v>
+      </c>
+      <c r="B434" s="2" t="s">
+        <v>870</v>
+      </c>
+      <c r="C434" s="2" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A435" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="B435" s="2" t="s">
+        <v>870</v>
+      </c>
+      <c r="C435" s="2" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A436" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="B436" s="2" t="s">
+        <v>873</v>
+      </c>
+      <c r="C436" s="2" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A437" s="2" t="s">
+        <v>874</v>
+      </c>
+      <c r="B437" s="2" t="s">
+        <v>877</v>
+      </c>
+      <c r="C437" s="2" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A438" s="2" t="s">
+        <v>875</v>
+      </c>
+      <c r="B438" s="2" t="s">
+        <v>876</v>
+      </c>
+      <c r="C438" s="2" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A439" s="2" t="s">
+        <v>878</v>
+      </c>
+      <c r="B439" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="C439" s="2" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A440" s="2" t="s">
+        <v>880</v>
+      </c>
+      <c r="B440" s="2" t="s">
+        <v>881</v>
+      </c>
+      <c r="C440" s="2" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A441" s="2" t="s">
+        <v>882</v>
+      </c>
+      <c r="B441" s="2" t="s">
+        <v>883</v>
+      </c>
+      <c r="C441" s="2" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A442" s="2" t="s">
+        <v>885</v>
+      </c>
+      <c r="B442" s="2" t="s">
+        <v>867</v>
+      </c>
+      <c r="C442" s="2" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A443" s="2" t="s">
+        <v>886</v>
+      </c>
+      <c r="B443" s="2" t="s">
+        <v>887</v>
+      </c>
+      <c r="C443" s="2" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A444" s="2" t="s">
+        <v>888</v>
+      </c>
+      <c r="B444" s="2" t="s">
+        <v>889</v>
+      </c>
+      <c r="C444" s="2" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A445" s="2" t="s">
+        <v>890</v>
+      </c>
+      <c r="B445" s="2" t="s">
+        <v>891</v>
+      </c>
+      <c r="C445" s="2" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A446" s="2" t="s">
+        <v>892</v>
+      </c>
+      <c r="B446" s="2" t="s">
+        <v>893</v>
+      </c>
+      <c r="C446" s="2" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A447" s="2" t="s">
+        <v>894</v>
+      </c>
+      <c r="B447" s="2" t="s">
+        <v>895</v>
+      </c>
+      <c r="C447" s="2" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A448" s="2" t="s">
+        <v>896</v>
+      </c>
+      <c r="B448" s="2" t="s">
+        <v>897</v>
+      </c>
+      <c r="C448" s="2" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A449" s="2" t="s">
+        <v>898</v>
+      </c>
+      <c r="B449" s="2" t="s">
+        <v>899</v>
+      </c>
+      <c r="C449" s="2" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A450" s="2" t="s">
+        <v>900</v>
+      </c>
+      <c r="B450" s="2" t="s">
+        <v>901</v>
+      </c>
+      <c r="C450" s="2" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A451" s="2" t="s">
+        <v>902</v>
+      </c>
+      <c r="B451" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="C451" s="2" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A452" s="2" t="s">
+        <v>904</v>
+      </c>
+      <c r="B452" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="C452" s="2" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A453" s="2" t="s">
+        <v>905</v>
+      </c>
+      <c r="B453" s="2" t="s">
+        <v>906</v>
+      </c>
+      <c r="C453" s="2" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A454" s="2" t="s">
+        <v>907</v>
+      </c>
+      <c r="B454" s="2" t="s">
+        <v>908</v>
+      </c>
+      <c r="C454" s="2" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A455" s="2" t="s">
+        <v>909</v>
+      </c>
+      <c r="B455" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="C455" s="2" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A456" s="2" t="s">
+        <v>910</v>
+      </c>
+      <c r="B456" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="C456" s="2" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A457" s="2" t="s">
+        <v>911</v>
+      </c>
+      <c r="B457" s="2" t="s">
+        <v>916</v>
+      </c>
+      <c r="C457" s="2" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A458" s="2" t="s">
+        <v>912</v>
+      </c>
+      <c r="B458" s="2" t="s">
+        <v>917</v>
+      </c>
+      <c r="C458" s="2" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A459" s="2" t="s">
+        <v>913</v>
+      </c>
+      <c r="B459" s="2" t="s">
+        <v>918</v>
+      </c>
+      <c r="C459" s="2" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A460" s="2" t="s">
+        <v>920</v>
+      </c>
+      <c r="B460" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="C460" s="2" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A461" s="2" t="s">
+        <v>922</v>
+      </c>
+      <c r="B461" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C461" s="2" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A462" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="B462" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="C462" s="2" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A463" s="2" t="s">
+        <v>925</v>
+      </c>
+      <c r="B463" s="2" t="s">
+        <v>926</v>
+      </c>
+      <c r="C463" s="2" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A464" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="B464" s="2" t="s">
+        <v>928</v>
+      </c>
+      <c r="C464" s="2" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A465" s="2" t="s">
+        <v>929</v>
+      </c>
+      <c r="B465" s="2" t="s">
+        <v>930</v>
+      </c>
+      <c r="C465" s="2" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A466" s="2" t="s">
+        <v>931</v>
+      </c>
+      <c r="B466" s="2" t="s">
+        <v>932</v>
+      </c>
+      <c r="C466" s="2" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A467" s="2" t="s">
+        <v>933</v>
+      </c>
+      <c r="B467" s="2" t="s">
+        <v>934</v>
+      </c>
+      <c r="C467" s="2" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A468" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="B468" s="2" t="s">
+        <v>936</v>
+      </c>
+      <c r="C468" s="2" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A469" s="2" t="s">
+        <v>937</v>
+      </c>
+      <c r="B469" s="2" t="s">
+        <v>938</v>
+      </c>
+      <c r="C469" s="2" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A470" s="2" t="s">
+        <v>939</v>
+      </c>
+      <c r="B470" s="2" t="s">
+        <v>940</v>
+      </c>
+      <c r="C470" s="2" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A471" s="2" t="s">
+        <v>941</v>
+      </c>
+      <c r="B471" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="C471" s="2" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A472" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="B472" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="C472" s="2" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A473" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="B473" s="2" t="s">
+        <v>946</v>
+      </c>
+      <c r="C473" s="2" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A474" s="2" t="s">
+        <v>947</v>
+      </c>
+      <c r="B474" s="2" t="s">
+        <v>948</v>
+      </c>
+      <c r="C474" s="2" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A475" s="2" t="s">
+        <v>949</v>
+      </c>
+      <c r="B475" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="C475" s="2" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A476" s="2" t="s">
+        <v>951</v>
+      </c>
+      <c r="B476" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="C476" s="2" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A477" s="2" t="s">
+        <v>952</v>
+      </c>
+      <c r="B477" s="2" t="s">
+        <v>953</v>
+      </c>
+      <c r="C477" s="2" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A478" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="B478" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="C478" s="2" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A479" s="2" t="s">
+        <v>954</v>
+      </c>
+      <c r="B479" s="2" t="s">
+        <v>955</v>
+      </c>
+      <c r="C479" s="2" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A480" s="2" t="s">
+        <v>956</v>
+      </c>
+      <c r="B480" s="2" t="s">
+        <v>957</v>
+      </c>
+      <c r="C480" s="2" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A481" s="2" t="s">
+        <v>958</v>
+      </c>
+      <c r="B481" s="2" t="s">
+        <v>959</v>
+      </c>
+      <c r="C481" s="2" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A482" s="2" t="s">
+        <v>960</v>
+      </c>
+      <c r="B482" s="2" t="s">
+        <v>961</v>
+      </c>
+      <c r="C482" s="2" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A483" s="2" t="s">
+        <v>962</v>
+      </c>
+      <c r="B483" s="2" t="s">
+        <v>963</v>
+      </c>
+      <c r="C483" s="2" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A484" s="2" t="s">
+        <v>964</v>
+      </c>
+      <c r="B484" s="2" t="s">
+        <v>965</v>
+      </c>
+      <c r="C484" s="2" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A485" s="2" t="s">
+        <v>966</v>
+      </c>
+      <c r="B485" s="2" t="s">
+        <v>967</v>
+      </c>
+      <c r="C485" s="2" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A486" s="2" t="s">
+        <v>973</v>
+      </c>
+      <c r="B486" s="2" t="s">
+        <v>968</v>
+      </c>
+      <c r="C486" s="2" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A487" s="2" t="s">
+        <v>974</v>
+      </c>
+      <c r="B487" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="C487" s="2" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A488" s="2" t="s">
+        <v>975</v>
+      </c>
+      <c r="B488" s="2" t="s">
+        <v>970</v>
+      </c>
+      <c r="C488" s="2" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A489" s="2" t="s">
+        <v>976</v>
+      </c>
+      <c r="B489" s="2" t="s">
+        <v>971</v>
+      </c>
+      <c r="C489" s="2" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A490" s="2" t="s">
+        <v>977</v>
+      </c>
+      <c r="B490" s="2" t="s">
+        <v>972</v>
+      </c>
+      <c r="C490" s="2" t="s">
+        <v>801</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/학습자료/단답형/영단어 기출.xlsx
+++ b/학습자료/단답형/영단어 기출.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D488"/>
+  <dimension ref="A1:D521"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1192,7 +1192,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="43">
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1412,7 +1412,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="50">
@@ -1472,7 +1472,7 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="53">
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="56">
@@ -1712,7 +1712,7 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="65">
@@ -1972,7 +1972,7 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -2012,7 +2012,7 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="80">
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="81">
@@ -2052,7 +2052,7 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="82">
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="83">
@@ -2272,7 +2272,7 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="93">
@@ -2392,7 +2392,7 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99">
@@ -2512,7 +2512,7 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="109">
@@ -2792,7 +2792,7 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="119">
@@ -2952,7 +2952,7 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
@@ -2992,7 +2992,7 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="129">
@@ -3012,7 +3012,7 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="130">
@@ -3032,7 +3032,7 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="131">
@@ -3072,7 +3072,7 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="133">
@@ -3172,7 +3172,7 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="138">
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="141">
@@ -3272,7 +3272,7 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143">
@@ -3292,7 +3292,7 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="144">
@@ -3352,7 +3352,7 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="147">
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="148">
@@ -3412,7 +3412,7 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="150">
@@ -3432,7 +3432,7 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="151">
@@ -3572,7 +3572,7 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="158">
@@ -3612,7 +3612,7 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160">
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="163">
@@ -3792,7 +3792,7 @@
         </is>
       </c>
       <c r="D168" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="169">
@@ -3832,7 +3832,7 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171">
@@ -3852,7 +3852,7 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="172">
@@ -3872,7 +3872,7 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173">
@@ -3972,7 +3972,7 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="178">
@@ -4072,7 +4072,7 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183">
@@ -4112,7 +4112,7 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="185">
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="186">
@@ -4192,7 +4192,7 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="189">
@@ -4272,7 +4272,7 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="193">
@@ -4292,7 +4292,7 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="194">
@@ -4412,7 +4412,7 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200">
@@ -4472,7 +4472,7 @@
         </is>
       </c>
       <c r="D202" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="203">
@@ -4532,7 +4532,7 @@
         </is>
       </c>
       <c r="D205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206">
@@ -4612,7 +4612,7 @@
         </is>
       </c>
       <c r="D209" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="210">
@@ -4672,7 +4672,7 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213">
@@ -4712,7 +4712,7 @@
         </is>
       </c>
       <c r="D214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215">
@@ -4932,7 +4932,7 @@
         </is>
       </c>
       <c r="D225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226">
@@ -4952,7 +4952,7 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="227">
@@ -4992,7 +4992,7 @@
         </is>
       </c>
       <c r="D228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229">
@@ -5132,7 +5132,7 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="236">
@@ -5172,7 +5172,7 @@
         </is>
       </c>
       <c r="D237" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="238">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="D241" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242">
@@ -5272,7 +5272,7 @@
         </is>
       </c>
       <c r="D242" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="243">
@@ -5292,7 +5292,7 @@
         </is>
       </c>
       <c r="D243" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="244">
@@ -5352,7 +5352,7 @@
         </is>
       </c>
       <c r="D246" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247">
@@ -5372,7 +5372,7 @@
         </is>
       </c>
       <c r="D247" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="248">
@@ -5392,7 +5392,7 @@
         </is>
       </c>
       <c r="D248" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="249">
@@ -5632,7 +5632,7 @@
         </is>
       </c>
       <c r="D260" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261">
@@ -5652,7 +5652,7 @@
         </is>
       </c>
       <c r="D261" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="262">
@@ -5672,7 +5672,7 @@
         </is>
       </c>
       <c r="D262" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="263">
@@ -5692,7 +5692,7 @@
         </is>
       </c>
       <c r="D263" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="264">
@@ -5772,7 +5772,7 @@
         </is>
       </c>
       <c r="D267" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="268">
@@ -5852,7 +5852,7 @@
         </is>
       </c>
       <c r="D271" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="272">
@@ -5892,7 +5892,7 @@
         </is>
       </c>
       <c r="D273" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="274">
@@ -6132,7 +6132,7 @@
         </is>
       </c>
       <c r="D285" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="286">
@@ -6292,7 +6292,7 @@
         </is>
       </c>
       <c r="D293" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294">
@@ -6372,7 +6372,7 @@
         </is>
       </c>
       <c r="D297" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298">
@@ -6392,7 +6392,7 @@
         </is>
       </c>
       <c r="D298" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="299">
@@ -6452,7 +6452,7 @@
         </is>
       </c>
       <c r="D301" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302">
@@ -6492,7 +6492,7 @@
         </is>
       </c>
       <c r="D303" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="304">
@@ -6532,7 +6532,7 @@
         </is>
       </c>
       <c r="D305" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="306">
@@ -6712,7 +6712,7 @@
         </is>
       </c>
       <c r="D314" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315">
@@ -6852,7 +6852,7 @@
         </is>
       </c>
       <c r="D321" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322">
@@ -6912,7 +6912,7 @@
         </is>
       </c>
       <c r="D324" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="325">
@@ -6952,7 +6952,7 @@
         </is>
       </c>
       <c r="D326" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327">
@@ -7092,7 +7092,7 @@
         </is>
       </c>
       <c r="D333" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="334">
@@ -7152,7 +7152,7 @@
         </is>
       </c>
       <c r="D336" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="337">
@@ -7192,7 +7192,7 @@
         </is>
       </c>
       <c r="D338" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="339">
@@ -7272,7 +7272,7 @@
         </is>
       </c>
       <c r="D342" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343">
@@ -7372,7 +7372,7 @@
         </is>
       </c>
       <c r="D347" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348">
@@ -7472,7 +7472,7 @@
         </is>
       </c>
       <c r="D352" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="353">
@@ -7492,7 +7492,7 @@
         </is>
       </c>
       <c r="D353" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="354">
@@ -7512,7 +7512,7 @@
         </is>
       </c>
       <c r="D354" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355">
@@ -7532,7 +7532,7 @@
         </is>
       </c>
       <c r="D355" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="356">
@@ -7572,7 +7572,7 @@
         </is>
       </c>
       <c r="D357" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="358">
@@ -7592,7 +7592,7 @@
         </is>
       </c>
       <c r="D358" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="359">
@@ -7852,7 +7852,7 @@
         </is>
       </c>
       <c r="D371" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372">
@@ -7932,7 +7932,7 @@
         </is>
       </c>
       <c r="D375" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="376">
@@ -8352,7 +8352,7 @@
         </is>
       </c>
       <c r="D396" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="397">
@@ -8432,7 +8432,7 @@
         </is>
       </c>
       <c r="D400" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="401">
@@ -8492,7 +8492,7 @@
         </is>
       </c>
       <c r="D403" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="404">
@@ -8512,7 +8512,7 @@
         </is>
       </c>
       <c r="D404" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="405">
@@ -8652,7 +8652,7 @@
         </is>
       </c>
       <c r="D411" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="412">
@@ -8672,7 +8672,7 @@
         </is>
       </c>
       <c r="D412" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="413">
@@ -8692,7 +8692,7 @@
         </is>
       </c>
       <c r="D413" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414">
@@ -8732,7 +8732,7 @@
         </is>
       </c>
       <c r="D415" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="416">
@@ -8972,7 +8972,7 @@
         </is>
       </c>
       <c r="D427" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="428">
@@ -8992,7 +8992,7 @@
         </is>
       </c>
       <c r="D428" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="429">
@@ -9092,7 +9092,7 @@
         </is>
       </c>
       <c r="D433" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="434">
@@ -9192,7 +9192,7 @@
         </is>
       </c>
       <c r="D438" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="439">
@@ -9412,7 +9412,7 @@
         </is>
       </c>
       <c r="D449" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="450">
@@ -9472,7 +9472,7 @@
         </is>
       </c>
       <c r="D452" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="453">
@@ -9492,7 +9492,7 @@
         </is>
       </c>
       <c r="D453" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="454">
@@ -9512,7 +9512,7 @@
         </is>
       </c>
       <c r="D454" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="455">
@@ -9572,7 +9572,7 @@
         </is>
       </c>
       <c r="D457" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="458">
@@ -9652,7 +9652,7 @@
         </is>
       </c>
       <c r="D461" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="462">
@@ -9692,7 +9692,7 @@
         </is>
       </c>
       <c r="D463" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="464">
@@ -9712,7 +9712,7 @@
         </is>
       </c>
       <c r="D464" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="465">
@@ -9912,7 +9912,7 @@
         </is>
       </c>
       <c r="D474" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="475">
@@ -10192,7 +10192,667 @@
         </is>
       </c>
       <c r="D488" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>preclude</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>막다, 방해하다| hamper</t>
+        </is>
+      </c>
+      <c r="C489" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D489" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>hail</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>경의를 표하다</t>
+        </is>
+      </c>
+      <c r="C490" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D490" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>hop off</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>이륙하다</t>
+        </is>
+      </c>
+      <c r="C491" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D491" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>put down</t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>적어두다, 신청하다, 착륙하다</t>
+        </is>
+      </c>
+      <c r="C492" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D492" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>take back from</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>인수하다</t>
+        </is>
+      </c>
+      <c r="C493" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D493" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>contrive</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>고안하다, 설계하다, 꾀하다</t>
+        </is>
+      </c>
+      <c r="C494" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D494" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>resolve</t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>해결하다, 결심하다, 분해하다</t>
+        </is>
+      </c>
+      <c r="C495" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D495" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>pronounce</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>주장하다, 진술하다, 발음하다</t>
+        </is>
+      </c>
+      <c r="C496" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D496" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>assertory</t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>긍정적인, 단정적인</t>
+        </is>
+      </c>
+      <c r="C497" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D497" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>verdict</t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>판결, 평결</t>
+        </is>
+      </c>
+      <c r="C498" t="inlineStr">
+        <is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D498" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>추천서</t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>reference letter</t>
+        </is>
+      </c>
+      <c r="C499" t="inlineStr">
+        <is>
+          <t>서적</t>
+        </is>
+      </c>
+      <c r="D499" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>자서전</t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>autobiography</t>
+        </is>
+      </c>
+      <c r="C500" t="inlineStr">
+        <is>
+          <t>서적</t>
+        </is>
+      </c>
+      <c r="D500" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>사망 기사</t>
+        </is>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>obituary</t>
+        </is>
+      </c>
+      <c r="C501" t="inlineStr">
+        <is>
+          <t>서적</t>
+        </is>
+      </c>
+      <c r="D501" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>일기</t>
+        </is>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>journal</t>
+        </is>
+      </c>
+      <c r="C502" t="inlineStr">
+        <is>
+          <t>서적</t>
+        </is>
+      </c>
+      <c r="D502" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>adorable</t>
+        </is>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>귀여운</t>
+        </is>
+      </c>
+      <c r="C503" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D503" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>attraction</t>
+        </is>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>명물, 명소</t>
+        </is>
+      </c>
+      <c r="C504" t="inlineStr">
+        <is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D504" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>ranch</t>
+        </is>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>목장, 농장</t>
+        </is>
+      </c>
+      <c r="C505" t="inlineStr">
+        <is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D505" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>herd</t>
+        </is>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>(짐승을) 몰다</t>
+        </is>
+      </c>
+      <c r="C506" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D506" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>bronc</t>
+        </is>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>야생</t>
+        </is>
+      </c>
+      <c r="C507" t="inlineStr">
+        <is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D507" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>legitimate</t>
+        </is>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>정통의| 진짜의, 합법의</t>
+        </is>
+      </c>
+      <c r="C508" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D508" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>encrypt</t>
+        </is>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>암호화하다</t>
+        </is>
+      </c>
+      <c r="C509" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D509" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>refine</t>
+        </is>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>개선하다, 세련되게 하다</t>
+        </is>
+      </c>
+      <c r="C510" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D510" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>inroad</t>
+        </is>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>침해, 침략, 침입</t>
+        </is>
+      </c>
+      <c r="C511" t="inlineStr">
+        <is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D511" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>subordination</t>
+        </is>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>복종, 종속 관계</t>
+        </is>
+      </c>
+      <c r="C512" t="inlineStr">
+        <is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D512" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>in itself</t>
+        </is>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>그 자체로, 본질적으로</t>
+        </is>
+      </c>
+      <c r="C513" t="inlineStr">
+        <is>
+          <t>부사</t>
+        </is>
+      </c>
+      <c r="D513" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>in a nutshell</t>
+        </is>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>간단히 말해, 간결하게</t>
+        </is>
+      </c>
+      <c r="C514" t="inlineStr">
+        <is>
+          <t>부사</t>
+        </is>
+      </c>
+      <c r="D514" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>de facto</t>
+        </is>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>사실상의, 실제로</t>
+        </is>
+      </c>
+      <c r="C515" t="inlineStr">
+        <is>
+          <t>부사</t>
+        </is>
+      </c>
+      <c r="D515" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>squat</t>
+        </is>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>불법 거주하다| 쪼그리고 앉다</t>
+        </is>
+      </c>
+      <c r="C516" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D516" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>backlog</t>
+        </is>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>재고, 잔무, 밀린 일</t>
+        </is>
+      </c>
+      <c r="C517" t="inlineStr">
+        <is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D517" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>stand</t>
+        </is>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>(수준, 양 등이) ~이다</t>
+        </is>
+      </c>
+      <c r="C518" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D518" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>as such</t>
+        </is>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>그렇기 때문에, 그러함에 따라</t>
+        </is>
+      </c>
+      <c r="C519" t="inlineStr">
+        <is>
+          <t>부사</t>
+        </is>
+      </c>
+      <c r="D519" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>resort to</t>
+        </is>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>~에 의지하다, 기대다</t>
+        </is>
+      </c>
+      <c r="C520" t="inlineStr">
+        <is>
+          <t>동사</t>
+        </is>
+      </c>
+      <c r="D520" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>bracket</t>
+        </is>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>계층</t>
+        </is>
+      </c>
+      <c r="C521" t="inlineStr">
+        <is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D521" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/학습자료/단답형/영단어 기출.xlsx
+++ b/학습자료/단답형/영단어 기출.xlsx
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="4">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="5">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="9">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="11">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="12">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="15">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="18">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="19">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22">
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="23">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="25">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="28">
@@ -992,7 +992,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="29">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="31">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="36">
@@ -1172,7 +1172,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="38">
@@ -1192,7 +1192,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="39">
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1232,7 +1232,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="41">
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="42">
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="44">
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="45">
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="46">
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="47">
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -1392,7 +1392,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="49">
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="51">
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="54">
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="57">
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="58">
@@ -1592,7 +1592,7 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="59">
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="60">
@@ -1652,7 +1652,7 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="62">
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="66">
@@ -1752,7 +1752,7 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="67">
@@ -1772,7 +1772,7 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="68">
@@ -1792,7 +1792,7 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="69">
@@ -1852,7 +1852,7 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="72">
@@ -1872,7 +1872,7 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="73">
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="74">
@@ -1912,7 +1912,7 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="75">
@@ -1932,7 +1932,7 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="76">
@@ -1952,7 +1952,7 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -1972,7 +1972,7 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="78">
@@ -1992,7 +1992,7 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="79">
@@ -2052,7 +2052,7 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="82">
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="83">
@@ -2092,7 +2092,7 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="84">
@@ -2112,7 +2112,7 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="85">
@@ -2172,7 +2172,7 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="88">
@@ -2252,7 +2252,7 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="92">
@@ -2292,7 +2292,7 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="94">
@@ -2312,7 +2312,7 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="96">
@@ -2352,7 +2352,7 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="97">
@@ -2372,7 +2372,7 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="98">
@@ -2432,7 +2432,7 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="101">
@@ -2472,7 +2472,7 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="103">
@@ -2492,7 +2492,7 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="104">
@@ -2512,7 +2512,7 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="105">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="107">
@@ -2572,7 +2572,7 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="108">
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="109">
@@ -2632,7 +2632,7 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="111">
@@ -2672,7 +2672,7 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="113">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="115">
@@ -2732,7 +2732,7 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="116">
@@ -2772,7 +2772,7 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="118">
@@ -2792,7 +2792,7 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
@@ -2812,7 +2812,7 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="120">
@@ -2832,7 +2832,7 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="121">
@@ -2872,7 +2872,7 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="123">
@@ -2892,7 +2892,7 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="124">
@@ -2952,7 +2952,7 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="127">
@@ -2972,7 +2972,7 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="128">
@@ -2992,7 +2992,7 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="129">
@@ -3012,7 +3012,7 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="130">
@@ -3032,7 +3032,7 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="131">
@@ -3072,7 +3072,7 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="135">
@@ -3132,7 +3132,7 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="136">
@@ -3152,7 +3152,7 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="137">
@@ -3172,7 +3172,7 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="138">
@@ -3192,7 +3192,7 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
@@ -3212,7 +3212,7 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="140">
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="141">
@@ -3252,7 +3252,7 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="142">
@@ -3272,7 +3272,7 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="143">
@@ -3292,7 +3292,7 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="144">
@@ -3312,7 +3312,7 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="145">
@@ -3352,7 +3352,7 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="147">
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="148">
@@ -3392,7 +3392,7 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="149">
@@ -3452,7 +3452,7 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="152">
@@ -3512,7 +3512,7 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="155">
@@ -3532,7 +3532,7 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="156">
@@ -3552,7 +3552,7 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="157">
@@ -3572,7 +3572,7 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="158">
@@ -3592,7 +3592,7 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="159">
@@ -3612,7 +3612,7 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="160">
@@ -3692,7 +3692,7 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
@@ -3732,7 +3732,7 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="166">
@@ -3752,7 +3752,7 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="167">
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="168">
@@ -3792,7 +3792,7 @@
         </is>
       </c>
       <c r="D168" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
@@ -3812,7 +3812,7 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170">
@@ -3832,7 +3832,7 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="171">
@@ -3872,7 +3872,7 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
@@ -3892,7 +3892,7 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="174">
@@ -3912,7 +3912,7 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="175">
@@ -3992,7 +3992,7 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
@@ -4032,7 +4032,7 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
@@ -4072,7 +4072,7 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="183">
@@ -4092,7 +4092,7 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184">
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="186">
@@ -4212,7 +4212,7 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="190">
@@ -4232,7 +4232,7 @@
         </is>
       </c>
       <c r="D190" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="191">
@@ -4272,7 +4272,7 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="193">
@@ -4292,7 +4292,7 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="194">
@@ -4312,7 +4312,7 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="195">
@@ -4332,7 +4332,7 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196">
@@ -4352,7 +4352,7 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="197">
@@ -4392,7 +4392,7 @@
         </is>
       </c>
       <c r="D198" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="199">
@@ -4412,7 +4412,7 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200">
@@ -4452,7 +4452,7 @@
         </is>
       </c>
       <c r="D201" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="202">
@@ -4472,7 +4472,7 @@
         </is>
       </c>
       <c r="D202" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="203">
@@ -4492,7 +4492,7 @@
         </is>
       </c>
       <c r="D203" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204">
@@ -4532,7 +4532,7 @@
         </is>
       </c>
       <c r="D205" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="206">
@@ -4552,7 +4552,7 @@
         </is>
       </c>
       <c r="D206" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207">
@@ -4572,7 +4572,7 @@
         </is>
       </c>
       <c r="D207" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="208">
@@ -4592,7 +4592,7 @@
         </is>
       </c>
       <c r="D208" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="209">
@@ -4652,7 +4652,7 @@
         </is>
       </c>
       <c r="D211" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="212">
@@ -4672,7 +4672,7 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213">
@@ -4692,7 +4692,7 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="214">
@@ -4712,7 +4712,7 @@
         </is>
       </c>
       <c r="D214" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="215">
@@ -4732,7 +4732,7 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216">
@@ -4752,7 +4752,7 @@
         </is>
       </c>
       <c r="D216" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217">
@@ -4772,7 +4772,7 @@
         </is>
       </c>
       <c r="D217" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="218">
@@ -4792,7 +4792,7 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219">
@@ -4952,7 +4952,7 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="227">
@@ -4972,7 +4972,7 @@
         </is>
       </c>
       <c r="D227" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="228">
@@ -4992,7 +4992,7 @@
         </is>
       </c>
       <c r="D228" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="229">
@@ -5012,7 +5012,7 @@
         </is>
       </c>
       <c r="D229" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="230">
@@ -5032,7 +5032,7 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231">
@@ -5052,7 +5052,7 @@
         </is>
       </c>
       <c r="D231" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="232">
@@ -5092,7 +5092,7 @@
         </is>
       </c>
       <c r="D233" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="234">
@@ -5152,7 +5152,7 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="237">
@@ -5172,7 +5172,7 @@
         </is>
       </c>
       <c r="D237" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="D241" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="242">
@@ -5272,7 +5272,7 @@
         </is>
       </c>
       <c r="D242" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="243">
@@ -5292,7 +5292,7 @@
         </is>
       </c>
       <c r="D243" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244">
@@ -5312,7 +5312,7 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="245">
@@ -5332,7 +5332,7 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="246">
@@ -5352,7 +5352,7 @@
         </is>
       </c>
       <c r="D246" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="247">
@@ -5372,7 +5372,7 @@
         </is>
       </c>
       <c r="D247" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="248">
@@ -5412,7 +5412,7 @@
         </is>
       </c>
       <c r="D249" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="250">
@@ -5472,7 +5472,7 @@
         </is>
       </c>
       <c r="D252" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="253">
@@ -5492,7 +5492,7 @@
         </is>
       </c>
       <c r="D253" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="254">
@@ -5612,7 +5612,7 @@
         </is>
       </c>
       <c r="D259" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="260">
@@ -5632,7 +5632,7 @@
         </is>
       </c>
       <c r="D260" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="261">
@@ -5672,7 +5672,7 @@
         </is>
       </c>
       <c r="D262" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="263">
@@ -5692,7 +5692,7 @@
         </is>
       </c>
       <c r="D263" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="264">
@@ -5712,7 +5712,7 @@
         </is>
       </c>
       <c r="D264" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="265">
@@ -5732,7 +5732,7 @@
         </is>
       </c>
       <c r="D265" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="266">
@@ -5752,7 +5752,7 @@
         </is>
       </c>
       <c r="D266" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="267">
@@ -5832,7 +5832,7 @@
         </is>
       </c>
       <c r="D270" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="271">
@@ -5852,7 +5852,7 @@
         </is>
       </c>
       <c r="D271" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="272">
@@ -5872,7 +5872,7 @@
         </is>
       </c>
       <c r="D272" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="273">
@@ -5892,7 +5892,7 @@
         </is>
       </c>
       <c r="D273" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="274">
@@ -5932,7 +5932,7 @@
         </is>
       </c>
       <c r="D275" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="276">
@@ -5952,7 +5952,7 @@
         </is>
       </c>
       <c r="D276" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="277">
@@ -6012,7 +6012,7 @@
         </is>
       </c>
       <c r="D279" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="280">
@@ -6032,7 +6032,7 @@
         </is>
       </c>
       <c r="D280" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="281">
@@ -6072,7 +6072,7 @@
         </is>
       </c>
       <c r="D282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283">
@@ -6132,7 +6132,7 @@
         </is>
       </c>
       <c r="D285" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="286">
@@ -6172,7 +6172,7 @@
         </is>
       </c>
       <c r="D287" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="288">
@@ -6192,7 +6192,7 @@
         </is>
       </c>
       <c r="D288" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="289">
@@ -6212,7 +6212,7 @@
         </is>
       </c>
       <c r="D289" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="290">
@@ -6232,7 +6232,7 @@
         </is>
       </c>
       <c r="D290" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="291">
@@ -6252,7 +6252,7 @@
         </is>
       </c>
       <c r="D291" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="292">
@@ -6272,7 +6272,7 @@
         </is>
       </c>
       <c r="D292" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="293">
@@ -6292,7 +6292,7 @@
         </is>
       </c>
       <c r="D293" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="294">
@@ -6312,7 +6312,7 @@
         </is>
       </c>
       <c r="D294" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="295">
@@ -6432,7 +6432,7 @@
         </is>
       </c>
       <c r="D300" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="301">
@@ -6452,7 +6452,7 @@
         </is>
       </c>
       <c r="D301" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="302">
@@ -6472,7 +6472,7 @@
         </is>
       </c>
       <c r="D302" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="303">
@@ -6532,7 +6532,7 @@
         </is>
       </c>
       <c r="D305" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="306">
@@ -6612,7 +6612,7 @@
         </is>
       </c>
       <c r="D309" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="310">
@@ -6632,7 +6632,7 @@
         </is>
       </c>
       <c r="D310" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="311">
@@ -6652,7 +6652,7 @@
         </is>
       </c>
       <c r="D311" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="312">
@@ -6812,7 +6812,7 @@
         </is>
       </c>
       <c r="D319" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320">
@@ -6832,7 +6832,7 @@
         </is>
       </c>
       <c r="D320" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="321">
@@ -6852,7 +6852,7 @@
         </is>
       </c>
       <c r="D321" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="322">
@@ -6872,7 +6872,7 @@
         </is>
       </c>
       <c r="D322" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="323">
@@ -6912,7 +6912,7 @@
         </is>
       </c>
       <c r="D324" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325">
@@ -6932,7 +6932,7 @@
         </is>
       </c>
       <c r="D325" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="326">
@@ -6952,7 +6952,7 @@
         </is>
       </c>
       <c r="D326" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="327">
@@ -6972,7 +6972,7 @@
         </is>
       </c>
       <c r="D327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328">
@@ -6992,7 +6992,7 @@
         </is>
       </c>
       <c r="D328" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="329">
@@ -7012,7 +7012,7 @@
         </is>
       </c>
       <c r="D329" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="330">
@@ -7032,7 +7032,7 @@
         </is>
       </c>
       <c r="D330" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="331">
@@ -7052,7 +7052,7 @@
         </is>
       </c>
       <c r="D331" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="332">
@@ -7072,7 +7072,7 @@
         </is>
       </c>
       <c r="D332" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="333">
@@ -7092,7 +7092,7 @@
         </is>
       </c>
       <c r="D333" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="334">
@@ -7132,7 +7132,7 @@
         </is>
       </c>
       <c r="D335" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="336">
@@ -7152,7 +7152,7 @@
         </is>
       </c>
       <c r="D336" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="337">
@@ -7172,7 +7172,7 @@
         </is>
       </c>
       <c r="D337" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="338">
@@ -7212,7 +7212,7 @@
         </is>
       </c>
       <c r="D339" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="340">
@@ -7232,7 +7232,7 @@
         </is>
       </c>
       <c r="D340" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="341">
@@ -7252,7 +7252,7 @@
         </is>
       </c>
       <c r="D341" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="342">
@@ -7272,7 +7272,7 @@
         </is>
       </c>
       <c r="D342" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="343">
@@ -7292,7 +7292,7 @@
         </is>
       </c>
       <c r="D343" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344">
@@ -7312,7 +7312,7 @@
         </is>
       </c>
       <c r="D344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="345">
@@ -7332,7 +7332,7 @@
         </is>
       </c>
       <c r="D345" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="346">
@@ -7352,7 +7352,7 @@
         </is>
       </c>
       <c r="D346" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="347">
@@ -7372,7 +7372,7 @@
         </is>
       </c>
       <c r="D347" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="348">
@@ -7392,7 +7392,7 @@
         </is>
       </c>
       <c r="D348" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="349">
@@ -7412,7 +7412,7 @@
         </is>
       </c>
       <c r="D349" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="350">
@@ -7432,7 +7432,7 @@
         </is>
       </c>
       <c r="D350" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="351">
@@ -7452,7 +7452,7 @@
         </is>
       </c>
       <c r="D351" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="352">
@@ -7492,7 +7492,7 @@
         </is>
       </c>
       <c r="D353" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="354">
@@ -7512,7 +7512,7 @@
         </is>
       </c>
       <c r="D354" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355">
@@ -7532,7 +7532,7 @@
         </is>
       </c>
       <c r="D355" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="356">
@@ -7552,7 +7552,7 @@
         </is>
       </c>
       <c r="D356" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357">
@@ -7572,7 +7572,7 @@
         </is>
       </c>
       <c r="D357" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="358">
@@ -7592,7 +7592,7 @@
         </is>
       </c>
       <c r="D358" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="359">
@@ -7632,7 +7632,7 @@
         </is>
       </c>
       <c r="D360" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="361">
@@ -7652,7 +7652,7 @@
         </is>
       </c>
       <c r="D361" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362">
@@ -7672,7 +7672,7 @@
         </is>
       </c>
       <c r="D362" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="363">
@@ -7692,7 +7692,7 @@
         </is>
       </c>
       <c r="D363" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="364">
@@ -7792,7 +7792,7 @@
         </is>
       </c>
       <c r="D368" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="369">
@@ -7832,7 +7832,7 @@
         </is>
       </c>
       <c r="D370" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="371">
@@ -7852,7 +7852,7 @@
         </is>
       </c>
       <c r="D371" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="372">
@@ -7872,7 +7872,7 @@
         </is>
       </c>
       <c r="D372" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373">
@@ -7892,7 +7892,7 @@
         </is>
       </c>
       <c r="D373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374">
@@ -7912,7 +7912,7 @@
         </is>
       </c>
       <c r="D374" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="375">
@@ -7932,7 +7932,7 @@
         </is>
       </c>
       <c r="D375" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376">
@@ -7952,7 +7952,7 @@
         </is>
       </c>
       <c r="D376" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="377">
@@ -8012,7 +8012,7 @@
         </is>
       </c>
       <c r="D379" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="380">
@@ -8032,7 +8032,7 @@
         </is>
       </c>
       <c r="D380" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="381">
@@ -8072,7 +8072,7 @@
         </is>
       </c>
       <c r="D382" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="383">
@@ -8092,7 +8092,7 @@
         </is>
       </c>
       <c r="D383" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="384">
@@ -8112,7 +8112,7 @@
         </is>
       </c>
       <c r="D384" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="385">
@@ -8132,7 +8132,7 @@
         </is>
       </c>
       <c r="D385" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="386">
@@ -8152,7 +8152,7 @@
         </is>
       </c>
       <c r="D386" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="387">
@@ -8172,7 +8172,7 @@
         </is>
       </c>
       <c r="D387" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="388">
@@ -8212,7 +8212,7 @@
         </is>
       </c>
       <c r="D389" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="390">
@@ -8252,7 +8252,7 @@
         </is>
       </c>
       <c r="D391" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="392">
@@ -8272,7 +8272,7 @@
         </is>
       </c>
       <c r="D392" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="393">
@@ -8292,7 +8292,7 @@
         </is>
       </c>
       <c r="D393" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="394">
@@ -8332,7 +8332,7 @@
         </is>
       </c>
       <c r="D395" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="396">
@@ -8352,7 +8352,7 @@
         </is>
       </c>
       <c r="D396" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="397">
@@ -8372,7 +8372,7 @@
         </is>
       </c>
       <c r="D397" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="398">
@@ -8392,7 +8392,7 @@
         </is>
       </c>
       <c r="D398" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="399">
@@ -8432,7 +8432,7 @@
         </is>
       </c>
       <c r="D400" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401">
@@ -8452,7 +8452,7 @@
         </is>
       </c>
       <c r="D401" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="402">
@@ -8492,7 +8492,7 @@
         </is>
       </c>
       <c r="D403" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="404">
@@ -8512,7 +8512,7 @@
         </is>
       </c>
       <c r="D404" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="405">
@@ -8532,7 +8532,7 @@
         </is>
       </c>
       <c r="D405" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="406">
@@ -8592,7 +8592,7 @@
         </is>
       </c>
       <c r="D408" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="409">
@@ -8632,7 +8632,7 @@
         </is>
       </c>
       <c r="D410" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="411">
@@ -8652,7 +8652,7 @@
         </is>
       </c>
       <c r="D411" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="412">
@@ -8712,7 +8712,7 @@
         </is>
       </c>
       <c r="D414" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="415">
@@ -8752,7 +8752,7 @@
         </is>
       </c>
       <c r="D416" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="417">
@@ -8792,7 +8792,7 @@
         </is>
       </c>
       <c r="D418" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="419">
@@ -8832,7 +8832,7 @@
         </is>
       </c>
       <c r="D420" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="421">
@@ -8872,7 +8872,7 @@
         </is>
       </c>
       <c r="D422" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="423">
@@ -8892,7 +8892,7 @@
         </is>
       </c>
       <c r="D423" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="424">
@@ -8912,7 +8912,7 @@
         </is>
       </c>
       <c r="D424" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="425">
@@ -8952,7 +8952,7 @@
         </is>
       </c>
       <c r="D426" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="427">
@@ -9012,7 +9012,7 @@
         </is>
       </c>
       <c r="D429" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430">
@@ -9072,7 +9072,7 @@
         </is>
       </c>
       <c r="D432" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="433">
@@ -9112,7 +9112,7 @@
         </is>
       </c>
       <c r="D434" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="435">
@@ -9172,7 +9172,7 @@
         </is>
       </c>
       <c r="D437" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="438">
@@ -9192,7 +9192,7 @@
         </is>
       </c>
       <c r="D438" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="439">
@@ -9212,7 +9212,7 @@
         </is>
       </c>
       <c r="D439" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="440">
@@ -9232,7 +9232,7 @@
         </is>
       </c>
       <c r="D440" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441">
@@ -9252,7 +9252,7 @@
         </is>
       </c>
       <c r="D441" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442">
@@ -9272,7 +9272,7 @@
         </is>
       </c>
       <c r="D442" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="443">
@@ -9312,7 +9312,7 @@
         </is>
       </c>
       <c r="D444" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="445">
@@ -9352,7 +9352,7 @@
         </is>
       </c>
       <c r="D446" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="447">
@@ -9392,7 +9392,7 @@
         </is>
       </c>
       <c r="D448" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449">
@@ -9412,7 +9412,7 @@
         </is>
       </c>
       <c r="D449" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="450">
@@ -9452,7 +9452,7 @@
         </is>
       </c>
       <c r="D451" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="452">
@@ -9512,7 +9512,7 @@
         </is>
       </c>
       <c r="D454" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455">
@@ -9592,7 +9592,7 @@
         </is>
       </c>
       <c r="D458" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="459">
@@ -9612,7 +9612,7 @@
         </is>
       </c>
       <c r="D459" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="460">
@@ -9632,7 +9632,7 @@
         </is>
       </c>
       <c r="D460" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461">
@@ -9692,7 +9692,7 @@
         </is>
       </c>
       <c r="D463" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="464">
@@ -9712,7 +9712,7 @@
         </is>
       </c>
       <c r="D464" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="465">
@@ -9732,7 +9732,7 @@
         </is>
       </c>
       <c r="D465" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="466">
@@ -9772,7 +9772,7 @@
         </is>
       </c>
       <c r="D467" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="468">
@@ -9812,7 +9812,7 @@
         </is>
       </c>
       <c r="D469" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="470">
@@ -9832,7 +9832,7 @@
         </is>
       </c>
       <c r="D470" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="471">
@@ -9852,7 +9852,7 @@
         </is>
       </c>
       <c r="D471" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="472">
@@ -9872,7 +9872,7 @@
         </is>
       </c>
       <c r="D472" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="473">
@@ -9912,7 +9912,7 @@
         </is>
       </c>
       <c r="D474" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475">
@@ -9932,7 +9932,7 @@
         </is>
       </c>
       <c r="D475" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476">
@@ -9952,7 +9952,7 @@
         </is>
       </c>
       <c r="D476" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="477">
@@ -9972,7 +9972,7 @@
         </is>
       </c>
       <c r="D477" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478">
@@ -10072,7 +10072,7 @@
         </is>
       </c>
       <c r="D482" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483">
@@ -10092,7 +10092,7 @@
         </is>
       </c>
       <c r="D483" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484">
@@ -10112,7 +10112,7 @@
         </is>
       </c>
       <c r="D484" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="485">
@@ -10152,7 +10152,7 @@
         </is>
       </c>
       <c r="D486" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="487">
@@ -10172,7 +10172,7 @@
         </is>
       </c>
       <c r="D487" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488">
@@ -10212,7 +10212,7 @@
         </is>
       </c>
       <c r="D489" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490">
@@ -10232,7 +10232,7 @@
         </is>
       </c>
       <c r="D490" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="491">
@@ -10252,7 +10252,7 @@
         </is>
       </c>
       <c r="D491" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="492">
@@ -10272,7 +10272,7 @@
         </is>
       </c>
       <c r="D492" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="493">
@@ -10292,7 +10292,7 @@
         </is>
       </c>
       <c r="D493" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="494">
@@ -10332,7 +10332,7 @@
         </is>
       </c>
       <c r="D495" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="496">
@@ -10352,7 +10352,7 @@
         </is>
       </c>
       <c r="D496" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="497">
@@ -10372,7 +10372,7 @@
         </is>
       </c>
       <c r="D497" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="498">
@@ -10392,7 +10392,7 @@
         </is>
       </c>
       <c r="D498" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="499">
@@ -10432,7 +10432,7 @@
         </is>
       </c>
       <c r="D500" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="501">
@@ -10452,7 +10452,7 @@
         </is>
       </c>
       <c r="D501" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="502">
@@ -10472,7 +10472,7 @@
         </is>
       </c>
       <c r="D502" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="503">
@@ -10492,7 +10492,7 @@
         </is>
       </c>
       <c r="D503" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="504">
@@ -10512,7 +10512,7 @@
         </is>
       </c>
       <c r="D504" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="505">
@@ -10572,7 +10572,7 @@
         </is>
       </c>
       <c r="D507" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="508">
@@ -10592,7 +10592,7 @@
         </is>
       </c>
       <c r="D508" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="509">
@@ -10612,7 +10612,7 @@
         </is>
       </c>
       <c r="D509" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="510">
@@ -10652,7 +10652,7 @@
         </is>
       </c>
       <c r="D511" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="512">
@@ -10672,7 +10672,7 @@
         </is>
       </c>
       <c r="D512" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="513">
@@ -10692,7 +10692,7 @@
         </is>
       </c>
       <c r="D513" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="514">
@@ -10712,7 +10712,7 @@
         </is>
       </c>
       <c r="D514" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="515">
@@ -10732,7 +10732,7 @@
         </is>
       </c>
       <c r="D515" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="516">
@@ -10752,7 +10752,7 @@
         </is>
       </c>
       <c r="D516" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="517">
@@ -10772,7 +10772,7 @@
         </is>
       </c>
       <c r="D517" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="518">
@@ -10792,7 +10792,7 @@
         </is>
       </c>
       <c r="D518" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="519">
@@ -10812,7 +10812,7 @@
         </is>
       </c>
       <c r="D519" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="520">
@@ -10832,7 +10832,7 @@
         </is>
       </c>
       <c r="D520" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="521">
@@ -10852,7 +10852,7 @@
         </is>
       </c>
       <c r="D521" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
